--- a/09-septiembre/6-portal-cliente/debarrenechea/DEBA.xlsx
+++ b/09-septiembre/6-portal-cliente/debarrenechea/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\08-agosto\6-portal-cliente\debarrenechea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\debarrenechea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F5AB38-E85B-4486-9DE3-1735F9A34CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430976FD-B473-4EC8-9371-9AFA78C099A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
   <si>
     <t>DE BARRENECHEA</t>
   </si>
@@ -131,10 +131,37 @@
     <t>sac</t>
   </si>
   <si>
-    <t>|</t>
-  </si>
-  <si>
     <t>AGOSTO 2025</t>
+  </si>
+  <si>
+    <t>sueldo basico</t>
+  </si>
+  <si>
+    <t>antigüedad</t>
+  </si>
+  <si>
+    <t>presentismo</t>
+  </si>
+  <si>
+    <t>tot rem</t>
+  </si>
+  <si>
+    <t>no rem</t>
+  </si>
+  <si>
+    <t>ant nr</t>
+  </si>
+  <si>
+    <t>pre nr</t>
+  </si>
+  <si>
+    <t>tot nr</t>
+  </si>
+  <si>
+    <t>garcia</t>
+  </si>
+  <si>
+    <t>salva</t>
   </si>
 </sst>
 </file>
@@ -177,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,6 +473,14 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -476,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -772,37 +813,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +859,7 @@
         <v>652172.64</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
@@ -851,7 +892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
@@ -898,7 +939,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
@@ -945,7 +986,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -965,7 +1006,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
@@ -1011,7 +1052,7 @@
         <v>2536724.48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1021,7 +1062,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1055,7 +1096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1143,7 @@
         <v>629565.05999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -1149,7 +1190,7 @@
         <v>701608.77999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1168,7 +1209,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B16" s="11"/>
       <c r="C16" s="12">
         <f>SUM(C13:C15)</f>
@@ -1216,7 +1257,7 @@
         <v>1331173.8399999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1226,7 +1267,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1237,7 +1278,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1248,27 +1289,27 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="34" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="36"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1344,7 @@
       </c>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="G22" s="5"/>
@@ -1313,7 +1354,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1378,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
       <c r="G24" s="5"/>
       <c r="H24" s="22"/>
@@ -1345,7 +1386,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
@@ -1367,13 +1408,13 @@
       </c>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1387,11 +1428,11 @@
         <v>898731.64</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1405,13 +1446,13 @@
         <v>941321.1399999999</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="20"/>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1425,11 +1466,11 @@
         <v>898731.64</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="32" t="s">
+      <c r="J27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1443,13 +1484,13 @@
         <v>941321.1399999999</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1463,11 +1504,11 @@
         <v>898731.64</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1481,13 +1522,13 @@
         <v>941321.1399999999</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="20"/>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="13">
         <f>+L6</f>
         <v>1264345.28</v>
@@ -1501,11 +1542,11 @@
         <v>1893910.3399999999</v>
       </c>
       <c r="I29" s="20"/>
-      <c r="J29" s="32" t="s">
+      <c r="J29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="13">
         <f>+L7</f>
         <v>1278572.3999999999</v>
@@ -1519,13 +1560,13 @@
         <v>1980181.1799999997</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="20"/>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1539,11 +1580,11 @@
         <v>898731.64</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1557,13 +1598,13 @@
         <v>941321.1399999999</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="20"/>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="26">
@@ -1571,11 +1612,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="20"/>
-      <c r="J31" s="33" t="s">
+      <c r="J31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="26">
@@ -1583,13 +1624,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="20"/>
-      <c r="C32" s="33" t="s">
+      <c r="C32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="26">
@@ -1597,11 +1638,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="33" t="s">
+      <c r="J32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="26">
@@ -1609,13 +1650,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="20"/>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="13">
         <f>+L6</f>
         <v>1264345.28</v>
@@ -1629,11 +1670,11 @@
         <v>1893910.3399999999</v>
       </c>
       <c r="I33" s="20"/>
-      <c r="J33" s="32" t="s">
+      <c r="J33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="13">
         <f>+L7</f>
         <v>1278572.3999999999</v>
@@ -1647,13 +1688,13 @@
         <v>1980181.1799999997</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="13">
         <f>+C23</f>
         <v>632172.64</v>
@@ -1667,11 +1708,11 @@
         <v>946955.16999999993</v>
       </c>
       <c r="I34" s="20"/>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="13">
         <f>+K7</f>
         <v>639286.19999999995</v>
@@ -1685,13 +1726,13 @@
         <v>990090.58999999985</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="13">
         <f>+C6</f>
         <v>609206.04</v>
@@ -1705,11 +1746,11 @@
         <v>898731.64</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="13">
         <f>+C7</f>
         <v>616059.6</v>
@@ -1723,31 +1764,31 @@
         <v>941321.1399999999</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="37" t="s">
+      <c r="C36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="28">
         <v>4692.47</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="29"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="37" t="s">
+      <c r="J36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
       <c r="M36" s="28">
         <v>4692.47</v>
       </c>
       <c r="N36" s="28"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F38" s="5">
         <v>1252605.22</v>
       </c>
@@ -1755,7 +1796,7 @@
         <v>1396120.18</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F39" s="5">
         <v>1882170.28</v>
       </c>
@@ -1763,9 +1804,427 @@
         <v>2097729.59</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J45" t="s">
-        <v>31</v>
+    <row r="41" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B41" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K41" s="33"/>
+    </row>
+    <row r="42" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B42" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="35">
+        <f>537653.55+30000</f>
+        <v>567653.55000000005</v>
+      </c>
+      <c r="D42" s="35">
+        <v>32259.21</v>
+      </c>
+      <c r="E42" s="35">
+        <v>49972.73</v>
+      </c>
+      <c r="F42" s="35">
+        <f>+C42+D42+E42</f>
+        <v>649885.49</v>
+      </c>
+      <c r="G42" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H42" s="36">
+        <v>1200</v>
+      </c>
+      <c r="I42" s="35">
+        <v>1766</v>
+      </c>
+      <c r="J42" s="35">
+        <f>+G42+H42+I42</f>
+        <v>22966</v>
+      </c>
+      <c r="K42" s="37">
+        <f>+F42+J42</f>
+        <v>672851.49</v>
+      </c>
+      <c r="L42" s="6">
+        <f>+K42/25</f>
+        <v>26914.059600000001</v>
+      </c>
+      <c r="M42" s="6">
+        <f>+K42/30</f>
+        <v>22428.382999999998</v>
+      </c>
+      <c r="N42" s="6">
+        <f>+L42-M42</f>
+        <v>4485.6766000000025</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B43" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="35">
+        <f>537653.55+30000</f>
+        <v>567653.55000000005</v>
+      </c>
+      <c r="D43" s="35">
+        <v>38711.06</v>
+      </c>
+      <c r="E43" s="35">
+        <v>50510.17</v>
+      </c>
+      <c r="F43" s="35">
+        <f t="shared" ref="F43:F48" si="5">+C43+D43+E43</f>
+        <v>656874.78000000014</v>
+      </c>
+      <c r="G43" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H43" s="36">
+        <v>1440</v>
+      </c>
+      <c r="I43" s="35">
+        <v>1786.6</v>
+      </c>
+      <c r="J43" s="35">
+        <f t="shared" ref="J43:J49" si="6">+G43+H43+I43</f>
+        <v>23226.6</v>
+      </c>
+      <c r="K43" s="37">
+        <f t="shared" ref="K43:K49" si="7">+F43+J43</f>
+        <v>680101.38000000012</v>
+      </c>
+      <c r="L43" s="6">
+        <f t="shared" ref="L43:L49" si="8">+K43/25</f>
+        <v>27204.055200000006</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" ref="M43:M49" si="9">+K43/30</f>
+        <v>22670.046000000006</v>
+      </c>
+      <c r="N43" s="6">
+        <f t="shared" ref="N43:N49" si="10">+L43-M43</f>
+        <v>4534.0092000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B44" s="34"/>
+      <c r="C44" s="35">
+        <v>0</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35">
+        <v>0</v>
+      </c>
+      <c r="F44" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="36">
+        <v>0</v>
+      </c>
+      <c r="I44" s="35">
+        <v>1666</v>
+      </c>
+      <c r="J44" s="35">
+        <f t="shared" si="6"/>
+        <v>1666</v>
+      </c>
+      <c r="K44" s="37">
+        <f t="shared" si="7"/>
+        <v>1666</v>
+      </c>
+      <c r="L44" s="6">
+        <f t="shared" si="8"/>
+        <v>66.64</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="9"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" si="10"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B45" s="34"/>
+      <c r="C45" s="35">
+        <v>0</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35">
+        <v>0</v>
+      </c>
+      <c r="F45" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="36">
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
+        <v>3332</v>
+      </c>
+      <c r="J45" s="35">
+        <f t="shared" si="6"/>
+        <v>3332</v>
+      </c>
+      <c r="K45" s="37">
+        <f t="shared" si="7"/>
+        <v>3332</v>
+      </c>
+      <c r="L45" s="6">
+        <f t="shared" si="8"/>
+        <v>133.28</v>
+      </c>
+      <c r="M45" s="6">
+        <f t="shared" si="9"/>
+        <v>111.06666666666666</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="10"/>
+        <v>22.213333333333338</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B46" s="34"/>
+      <c r="C46" s="35">
+        <v>0</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35">
+        <v>0</v>
+      </c>
+      <c r="F46" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <v>0</v>
+      </c>
+      <c r="I46" s="35">
+        <v>1666</v>
+      </c>
+      <c r="J46" s="35">
+        <f t="shared" si="6"/>
+        <v>1666</v>
+      </c>
+      <c r="K46" s="37">
+        <f t="shared" si="7"/>
+        <v>1666</v>
+      </c>
+      <c r="L46" s="6">
+        <f t="shared" si="8"/>
+        <v>66.64</v>
+      </c>
+      <c r="M46" s="6">
+        <f t="shared" si="9"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="10"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B47" s="34"/>
+      <c r="C47" s="35">
+        <v>0</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35">
+        <v>0</v>
+      </c>
+      <c r="F47" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="35">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="35">
+        <v>1666</v>
+      </c>
+      <c r="J47" s="35">
+        <f t="shared" si="6"/>
+        <v>1666</v>
+      </c>
+      <c r="K47" s="37">
+        <f t="shared" si="7"/>
+        <v>1666</v>
+      </c>
+      <c r="L47" s="6">
+        <f t="shared" si="8"/>
+        <v>66.64</v>
+      </c>
+      <c r="M47" s="6">
+        <f t="shared" si="9"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="10"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B48" s="34"/>
+      <c r="C48" s="35">
+        <v>0</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35">
+        <v>0</v>
+      </c>
+      <c r="F48" s="35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="35">
+        <v>0</v>
+      </c>
+      <c r="H48" s="36">
+        <v>0</v>
+      </c>
+      <c r="I48" s="35">
+        <v>1666</v>
+      </c>
+      <c r="J48" s="35">
+        <f t="shared" si="6"/>
+        <v>1666</v>
+      </c>
+      <c r="K48" s="37">
+        <f t="shared" si="7"/>
+        <v>1666</v>
+      </c>
+      <c r="L48" s="6">
+        <f t="shared" si="8"/>
+        <v>66.64</v>
+      </c>
+      <c r="M48" s="6">
+        <f t="shared" si="9"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="10"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B49" s="34"/>
+      <c r="C49" s="35">
+        <v>0</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35">
+        <v>0</v>
+      </c>
+      <c r="F49" s="35">
+        <f>+C49+D49+E49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <v>0</v>
+      </c>
+      <c r="H49" s="36">
+        <v>0</v>
+      </c>
+      <c r="I49" s="35">
+        <v>1666</v>
+      </c>
+      <c r="J49" s="35">
+        <f t="shared" si="6"/>
+        <v>1666</v>
+      </c>
+      <c r="K49" s="37">
+        <f t="shared" si="7"/>
+        <v>1666</v>
+      </c>
+      <c r="L49" s="6">
+        <f t="shared" si="8"/>
+        <v>66.64</v>
+      </c>
+      <c r="M49" s="6">
+        <f t="shared" si="9"/>
+        <v>55.533333333333331</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="10"/>
+        <v>11.106666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B50" s="34"/>
+      <c r="C50" s="36">
+        <f>SUM(C42:C49)</f>
+        <v>1135307.1000000001</v>
+      </c>
+      <c r="D50" s="36">
+        <f t="shared" ref="D50:G50" si="11">SUM(D42:D49)</f>
+        <v>70970.26999999999</v>
+      </c>
+      <c r="E50" s="36">
+        <f t="shared" si="11"/>
+        <v>100482.9</v>
+      </c>
+      <c r="F50" s="36">
+        <f t="shared" si="11"/>
+        <v>1306760.27</v>
+      </c>
+      <c r="G50" s="36">
+        <f t="shared" si="11"/>
+        <v>40000</v>
+      </c>
+      <c r="H50" s="36">
+        <f>SUM(H42:H49)</f>
+        <v>2640</v>
+      </c>
+      <c r="I50" s="36">
+        <f>SUM(I42:I49)</f>
+        <v>15214.6</v>
+      </c>
+      <c r="J50" s="36">
+        <f>SUM(J42:J49)</f>
+        <v>57854.6</v>
+      </c>
+      <c r="K50" s="37">
+        <f>+F50+J50</f>
+        <v>1364614.87</v>
       </c>
     </row>
   </sheetData>

--- a/09-septiembre/6-portal-cliente/debarrenechea/DEBA.xlsx
+++ b/09-septiembre/6-portal-cliente/debarrenechea/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\debarrenechea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoxiePC\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\debarrenechea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430976FD-B473-4EC8-9371-9AFA78C099A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A346D01-3E14-4632-B705-3F0046C91491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>sac</t>
   </si>
   <si>
-    <t>AGOSTO 2025</t>
-  </si>
-  <si>
     <t>sueldo basico</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>salva</t>
+  </si>
+  <si>
+    <t>SEPTIEMBRE 2025</t>
   </si>
 </sst>
 </file>
@@ -481,10 +481,7 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,7 +493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -517,7 +517,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -815,35 +815,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,10 +857,10 @@
       <c r="H4" s="1"/>
       <c r="K4" s="6">
         <f>+K6+20000</f>
-        <v>652172.64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+        <v>697337.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
@@ -892,21 +893,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="10">
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10">
         <f>+C6+D6</f>
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="F6" s="10">
-        <v>22966.6</v>
+        <v>22966</v>
       </c>
       <c r="G6" s="10">
         <v>0</v>
@@ -919,19 +920,19 @@
       </c>
       <c r="J6" s="10">
         <f>+F6+G6+H6+I6</f>
-        <v>22966.6</v>
+        <v>22966</v>
       </c>
       <c r="K6" s="10">
         <f>+E6+J6</f>
-        <v>632172.64</v>
+        <v>677337.17</v>
       </c>
       <c r="L6" s="10">
         <f>+K6*2</f>
-        <v>1264345.28</v>
+        <v>1354674.34</v>
       </c>
       <c r="M6" s="10">
         <f>+E6+F6+G6+H6</f>
-        <v>632172.64</v>
+        <v>677337.17</v>
       </c>
       <c r="N6" s="4">
         <v>1261378.68</v>
@@ -939,24 +940,24 @@
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="10">
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10">
         <f>+C7+D7</f>
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="F7" s="10">
         <v>23226.6</v>
       </c>
       <c r="G7" s="10">
-        <v>0</v>
+        <v>553531.69999999995</v>
       </c>
       <c r="H7" s="10">
         <v>0</v>
@@ -966,19 +967,19 @@
       </c>
       <c r="J7" s="10">
         <f>+F7+G7+H7+I7</f>
-        <v>23226.6</v>
+        <v>576758.29999999993</v>
       </c>
       <c r="K7" s="10">
         <f>+E7+J7</f>
-        <v>639286.19999999995</v>
+        <v>1449036.29</v>
       </c>
       <c r="L7" s="10">
         <f>+K7*2</f>
-        <v>1278572.3999999999</v>
+        <v>2898072.58</v>
       </c>
       <c r="M7" s="10">
         <f>+E7+F7+G7+H7</f>
-        <v>639286.19999999995</v>
+        <v>1449036.29</v>
       </c>
       <c r="N7" s="4">
         <v>1275345.8</v>
@@ -986,7 +987,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
-    <row r="8" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1006,12 +1007,12 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
         <f>SUM(C6:C8)</f>
-        <v>1225265.6400000001</v>
+        <v>1526649.1600000001</v>
       </c>
       <c r="D9" s="12">
         <f>SUM(D6:D8)</f>
@@ -1019,11 +1020,11 @@
       </c>
       <c r="E9" s="10">
         <f>+C9+D9</f>
-        <v>1225265.6400000001</v>
+        <v>1526649.1600000001</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ref="F9:K9" si="0">SUM(F6:F8)</f>
-        <v>46193.2</v>
+        <v>46192.6</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1033,26 +1034,26 @@
       </c>
       <c r="J9" s="12">
         <f>SUM(J6:J8)</f>
-        <v>46193.2</v>
+        <v>599724.29999999993</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="0"/>
-        <v>1271458.8399999999</v>
+        <v>2126373.46</v>
       </c>
       <c r="L9" s="12">
         <f>SUM(L6:L8)</f>
-        <v>2542917.6799999997</v>
+        <v>4252746.92</v>
       </c>
       <c r="M9" s="12">
         <f>SUM(M6:M8)</f>
-        <v>1271458.8399999999</v>
+        <v>2126373.46</v>
       </c>
       <c r="N9" s="12">
         <f>SUM(N6:N8)</f>
         <v>2536724.48</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1062,7 +1063,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>629565.05999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>701608.77999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1209,7 +1210,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B16" s="11"/>
       <c r="C16" s="12">
         <f>SUM(C13:C15)</f>
@@ -1257,7 +1258,7 @@
         <v>1331173.8399999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1267,7 +1268,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1278,7 +1279,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1289,33 +1290,33 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="40" t="s">
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="40" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="42"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="41"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="30">
         <f>+J6</f>
-        <v>22966.6</v>
+        <v>22966</v>
       </c>
       <c r="E21" s="30">
         <f>+G13</f>
@@ -1323,7 +1324,7 @@
       </c>
       <c r="G21" s="5">
         <f>+C21+E21</f>
-        <v>48223.53</v>
+        <v>48222.93</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="15" t="s">
@@ -1344,7 +1345,7 @@
       </c>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="G22" s="5"/>
@@ -1354,13 +1355,13 @@
       <c r="N22" s="5"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="13">
         <f>+K6</f>
-        <v>632172.64</v>
+        <v>677337.17</v>
       </c>
       <c r="E23" s="13">
         <f>+K13</f>
@@ -1373,12 +1374,12 @@
       </c>
       <c r="J23" s="13">
         <f>+K7</f>
-        <v>639286.19999999995</v>
+        <v>1449036.29</v>
       </c>
       <c r="N23" s="5"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="20"/>
       <c r="G24" s="5"/>
       <c r="H24" s="22"/>
@@ -1386,7 +1387,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
@@ -1408,16 +1409,16 @@
       </c>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="20"/>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="13">
         <f>+C6</f>
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="G26" s="13">
         <f>+D13</f>
@@ -1425,17 +1426,17 @@
       </c>
       <c r="H26" s="25">
         <f>+F26+G26</f>
-        <v>898731.64</v>
+        <v>943896.77</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
       <c r="M26" s="13">
         <f>+C7</f>
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="N26" s="13">
         <f>+D14</f>
@@ -1443,19 +1444,19 @@
       </c>
       <c r="O26" s="25">
         <f>+M26+N26</f>
-        <v>941321.1399999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1197539.53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="20"/>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
       <c r="F27" s="13">
         <f>+C6</f>
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="G27" s="13">
         <f>+D13</f>
@@ -1463,17 +1464,17 @@
       </c>
       <c r="H27" s="25">
         <f t="shared" ref="H27:H35" si="3">+F27+G27</f>
-        <v>898731.64</v>
+        <v>943896.77</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="38" t="s">
+      <c r="J27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
       <c r="M27" s="13">
         <f>+C7</f>
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="N27" s="13">
         <f>+D14</f>
@@ -1481,19 +1482,19 @@
       </c>
       <c r="O27" s="25">
         <f t="shared" ref="O27:O35" si="4">+M27+N27</f>
-        <v>941321.1399999999</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1197539.53</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="20"/>
-      <c r="C28" s="38" t="s">
+      <c r="C28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="13">
         <f>+C6</f>
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="G28" s="13">
         <f>+D13</f>
@@ -1501,17 +1502,17 @@
       </c>
       <c r="H28" s="25">
         <f t="shared" si="3"/>
-        <v>898731.64</v>
+        <v>943896.77</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="38" t="s">
+      <c r="J28" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
       <c r="M28" s="13">
         <f>+C7</f>
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="N28" s="13">
         <f>+D14</f>
@@ -1519,19 +1520,19 @@
       </c>
       <c r="O28" s="25">
         <f t="shared" si="4"/>
-        <v>941321.1399999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1197539.53</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="20"/>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
       <c r="F29" s="13">
         <f>+L6</f>
-        <v>1264345.28</v>
+        <v>1354674.34</v>
       </c>
       <c r="G29" s="13">
         <f>+L13</f>
@@ -1539,17 +1540,17 @@
       </c>
       <c r="H29" s="25">
         <f t="shared" si="3"/>
-        <v>1893910.3399999999</v>
+        <v>1984239.4</v>
       </c>
       <c r="I29" s="20"/>
-      <c r="J29" s="38" t="s">
+      <c r="J29" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
       <c r="M29" s="13">
         <f>+L7</f>
-        <v>1278572.3999999999</v>
+        <v>2898072.58</v>
       </c>
       <c r="N29" s="13">
         <f>+L14</f>
@@ -1557,19 +1558,19 @@
       </c>
       <c r="O29" s="25">
         <f t="shared" si="4"/>
-        <v>1980181.1799999997</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+        <v>3599681.36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="20"/>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
       <c r="F30" s="13">
         <f>+C6</f>
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="G30" s="13">
         <f>+D13</f>
@@ -1577,17 +1578,17 @@
       </c>
       <c r="H30" s="25">
         <f t="shared" si="3"/>
-        <v>898731.64</v>
+        <v>943896.77</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="38" t="s">
+      <c r="J30" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
       <c r="M30" s="13">
         <f>+C7</f>
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="N30" s="13">
         <f>+D14</f>
@@ -1595,16 +1596,16 @@
       </c>
       <c r="O30" s="25">
         <f t="shared" si="4"/>
-        <v>941321.1399999999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1197539.53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="26">
@@ -1612,11 +1613,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="20"/>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="26">
@@ -1624,13 +1625,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="20"/>
-      <c r="C32" s="39" t="s">
+      <c r="C32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="26">
@@ -1638,11 +1639,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="26">
@@ -1650,16 +1651,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="20"/>
-      <c r="C33" s="38" t="s">
+      <c r="C33" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
       <c r="F33" s="13">
         <f>+L6</f>
-        <v>1264345.28</v>
+        <v>1354674.34</v>
       </c>
       <c r="G33" s="13">
         <f>+L13</f>
@@ -1667,17 +1668,17 @@
       </c>
       <c r="H33" s="25">
         <f t="shared" si="3"/>
-        <v>1893910.3399999999</v>
+        <v>1984239.4</v>
       </c>
       <c r="I33" s="20"/>
-      <c r="J33" s="38" t="s">
+      <c r="J33" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
       <c r="M33" s="13">
         <f>+L7</f>
-        <v>1278572.3999999999</v>
+        <v>2898072.58</v>
       </c>
       <c r="N33" s="13">
         <f>+L14</f>
@@ -1685,19 +1686,19 @@
       </c>
       <c r="O33" s="25">
         <f t="shared" si="4"/>
-        <v>1980181.1799999997</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+        <v>3599681.36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="20"/>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="13">
         <f>+C23</f>
-        <v>632172.64</v>
+        <v>677337.17</v>
       </c>
       <c r="G34" s="13">
         <f>+K13</f>
@@ -1705,17 +1706,17 @@
       </c>
       <c r="H34" s="25">
         <f t="shared" si="3"/>
-        <v>946955.16999999993</v>
+        <v>992119.7</v>
       </c>
       <c r="I34" s="20"/>
-      <c r="J34" s="38" t="s">
+      <c r="J34" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
       <c r="M34" s="13">
         <f>+K7</f>
-        <v>639286.19999999995</v>
+        <v>1449036.29</v>
       </c>
       <c r="N34" s="13">
         <f>+K14</f>
@@ -1723,19 +1724,19 @@
       </c>
       <c r="O34" s="25">
         <f t="shared" si="4"/>
-        <v>990090.58999999985</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+        <v>1799840.68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="20"/>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
       <c r="F35" s="13">
         <f>+C6</f>
-        <v>609206.04</v>
+        <v>654371.17000000004</v>
       </c>
       <c r="G35" s="13">
         <f>+D13</f>
@@ -1743,17 +1744,17 @@
       </c>
       <c r="H35" s="25">
         <f t="shared" si="3"/>
-        <v>898731.64</v>
+        <v>943896.77</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="38" t="s">
+      <c r="J35" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
       <c r="M35" s="13">
         <f>+C7</f>
-        <v>616059.6</v>
+        <v>872277.99</v>
       </c>
       <c r="N35" s="13">
         <f>+D14</f>
@@ -1761,34 +1762,34 @@
       </c>
       <c r="O35" s="25">
         <f t="shared" si="4"/>
-        <v>941321.1399999999</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1197539.53</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="28">
         <v>4692.47</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="29"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
       <c r="M36" s="28">
         <v>4692.47</v>
       </c>
       <c r="N36" s="28"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F38" s="5">
         <v>1252605.22</v>
       </c>
@@ -1796,7 +1797,7 @@
         <v>1396120.18</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F39" s="5">
         <v>1882170.28</v>
       </c>
@@ -1804,39 +1805,39 @@
         <v>2097729.59</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B41" s="32" t="s">
         <v>1</v>
       </c>
       <c r="C41" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="E41" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="F41" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="H41" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="32" t="s">
+      <c r="I41" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="J41" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J41" s="32" t="s">
+      <c r="K41" s="33"/>
+    </row>
+    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B42" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="K41" s="33"/>
-    </row>
-    <row r="42" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B42" s="34" t="s">
-        <v>40</v>
       </c>
       <c r="C42" s="35">
         <f>537653.55+30000</f>
@@ -1882,9 +1883,9 @@
         <v>4485.6766000000025</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B43" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="35">
         <f>537653.55+30000</f>
@@ -1930,7 +1931,7 @@
         <v>4534.0092000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B44" s="34"/>
       <c r="C44" s="35">
         <v>0</v>
@@ -1973,7 +1974,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B45" s="34"/>
       <c r="C45" s="35">
         <v>0</v>
@@ -2016,7 +2017,7 @@
         <v>22.213333333333338</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="46" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B46" s="34"/>
       <c r="C46" s="35">
         <v>0</v>
@@ -2059,7 +2060,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="47" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B47" s="34"/>
       <c r="C47" s="35">
         <v>0</v>
@@ -2102,7 +2103,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="48" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B48" s="34"/>
       <c r="C48" s="35">
         <v>0</v>
@@ -2145,7 +2146,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B49" s="34"/>
       <c r="C49" s="35">
         <v>0</v>
@@ -2188,7 +2189,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
       <c r="B50" s="34"/>
       <c r="C50" s="36">
         <f>SUM(C42:C49)</f>
@@ -2229,6 +2230,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="J26:L26"/>
@@ -2241,18 +2254,6 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>

--- a/09-septiembre/6-portal-cliente/debarrenechea/DEBA.xlsx
+++ b/09-septiembre/6-portal-cliente/debarrenechea/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoxiePC\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\debarrenechea\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirua\Documents\GitHub\sueldos-oficina\09-septiembre\6-portal-cliente\debarrenechea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A346D01-3E14-4632-B705-3F0046C91491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C56F112-8C29-4450-83C8-D0445817D7B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20520" yWindow="2475" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,7 +481,10 @@
     <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -493,11 +496,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +520,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -813,38 +816,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="41" zoomScaleNormal="41" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -860,7 +863,7 @@
         <v>697337.17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="7" t="s">
         <v>1</v>
@@ -893,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
         <v>7</v>
@@ -934,13 +937,13 @@
         <f>+E6+F6+G6+H6</f>
         <v>677337.17</v>
       </c>
-      <c r="N6" s="4">
-        <v>1261378.68</v>
+      <c r="N6" s="44">
+        <v>1351708.34</v>
       </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
         <v>6</v>
@@ -981,13 +984,21 @@
         <f>+E7+F7+G7+H7</f>
         <v>1449036.29</v>
       </c>
-      <c r="N7" s="4">
-        <v>1275345.8</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="N7" s="44">
+        <v>2341314.2799999998</v>
+      </c>
+      <c r="O7" s="44">
+        <v>70239.42</v>
+      </c>
+      <c r="P7" s="44">
+        <v>53730.28</v>
+      </c>
+      <c r="Q7" s="44">
+        <f>+O7-P7</f>
+        <v>16509.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A8" s="1"/>
       <c r="B8" s="9" t="s">
         <v>4</v>
@@ -1007,7 +1018,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A9" s="1"/>
       <c r="B9" s="11"/>
       <c r="C9" s="12">
@@ -1050,10 +1061,10 @@
       </c>
       <c r="N9" s="12">
         <f>SUM(N6:N8)</f>
-        <v>2536724.48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>3693022.62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -1063,7 +1074,7 @@
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
     </row>
-    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
@@ -1097,7 +1108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1155,7 @@
         <v>629565.05999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
@@ -1191,7 +1202,7 @@
         <v>701608.77999999991</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1221,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B16" s="11"/>
       <c r="C16" s="12">
         <f>SUM(C13:C15)</f>
@@ -1258,7 +1269,7 @@
         <v>1331173.8399999999</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -1268,7 +1279,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -1279,7 +1290,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1290,27 +1301,27 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="39" t="s">
+    <row r="20" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="39" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="42"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="20" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1356,7 @@
       </c>
       <c r="O21" s="19"/>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="G22" s="5"/>
@@ -1355,7 +1366,7 @@
       <c r="N22" s="5"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
@@ -1379,7 +1390,7 @@
       <c r="N23" s="5"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="20"/>
       <c r="G24" s="5"/>
       <c r="H24" s="22"/>
@@ -1387,7 +1398,7 @@
       <c r="N24" s="5"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="20" t="s">
         <v>17</v>
       </c>
@@ -1409,13 +1420,13 @@
       </c>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="20"/>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="13">
         <f>+C6</f>
         <v>654371.17000000004</v>
@@ -1429,11 +1440,11 @@
         <v>943896.77</v>
       </c>
       <c r="I26" s="20"/>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
       <c r="M26" s="13">
         <f>+C7</f>
         <v>872277.99</v>
@@ -1447,13 +1458,13 @@
         <v>1197539.53</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="20"/>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="13">
         <f>+C6</f>
         <v>654371.17000000004</v>
@@ -1467,11 +1478,11 @@
         <v>943896.77</v>
       </c>
       <c r="I27" s="20"/>
-      <c r="J27" s="42" t="s">
+      <c r="J27" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
       <c r="M27" s="13">
         <f>+C7</f>
         <v>872277.99</v>
@@ -1485,13 +1496,13 @@
         <v>1197539.53</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="20"/>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="13">
         <f>+C6</f>
         <v>654371.17000000004</v>
@@ -1505,11 +1516,11 @@
         <v>943896.77</v>
       </c>
       <c r="I28" s="20"/>
-      <c r="J28" s="42" t="s">
+      <c r="J28" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
       <c r="M28" s="13">
         <f>+C7</f>
         <v>872277.99</v>
@@ -1523,13 +1534,13 @@
         <v>1197539.53</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B29" s="20"/>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="13">
         <f>+L6</f>
         <v>1354674.34</v>
@@ -1543,11 +1554,11 @@
         <v>1984239.4</v>
       </c>
       <c r="I29" s="20"/>
-      <c r="J29" s="42" t="s">
+      <c r="J29" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
       <c r="M29" s="13">
         <f>+L7</f>
         <v>2898072.58</v>
@@ -1561,13 +1572,13 @@
         <v>3599681.36</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B30" s="20"/>
-      <c r="C30" s="42" t="s">
+      <c r="C30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="13">
         <f>+C6</f>
         <v>654371.17000000004</v>
@@ -1581,11 +1592,11 @@
         <v>943896.77</v>
       </c>
       <c r="I30" s="20"/>
-      <c r="J30" s="42" t="s">
+      <c r="J30" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
       <c r="M30" s="13">
         <f>+C7</f>
         <v>872277.99</v>
@@ -1599,13 +1610,13 @@
         <v>1197539.53</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B31" s="20"/>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="26">
@@ -1613,11 +1624,11 @@
         <v>0</v>
       </c>
       <c r="I31" s="20"/>
-      <c r="J31" s="43" t="s">
+      <c r="J31" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="26">
@@ -1625,13 +1636,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B32" s="20"/>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="26">
@@ -1639,11 +1650,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="20"/>
-      <c r="J32" s="43" t="s">
+      <c r="J32" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="26">
@@ -1651,13 +1662,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B33" s="20"/>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="13">
         <f>+L6</f>
         <v>1354674.34</v>
@@ -1671,11 +1682,11 @@
         <v>1984239.4</v>
       </c>
       <c r="I33" s="20"/>
-      <c r="J33" s="42" t="s">
+      <c r="J33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
       <c r="M33" s="13">
         <f>+L7</f>
         <v>2898072.58</v>
@@ -1689,13 +1700,13 @@
         <v>3599681.36</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B34" s="20"/>
-      <c r="C34" s="42" t="s">
+      <c r="C34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="13">
         <f>+C23</f>
         <v>677337.17</v>
@@ -1709,11 +1720,11 @@
         <v>992119.7</v>
       </c>
       <c r="I34" s="20"/>
-      <c r="J34" s="42" t="s">
+      <c r="J34" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
       <c r="M34" s="13">
         <f>+K7</f>
         <v>1449036.29</v>
@@ -1727,13 +1738,13 @@
         <v>1799840.68</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B35" s="20"/>
-      <c r="C35" s="42" t="s">
+      <c r="C35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="13">
         <f>+C6</f>
         <v>654371.17000000004</v>
@@ -1747,11 +1758,11 @@
         <v>943896.77</v>
       </c>
       <c r="I35" s="20"/>
-      <c r="J35" s="42" t="s">
+      <c r="J35" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
       <c r="M35" s="13">
         <f>+C7</f>
         <v>872277.99</v>
@@ -1765,31 +1776,31 @@
         <v>1197539.53</v>
       </c>
     </row>
-    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="27"/>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="28">
         <v>4692.47</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="29"/>
       <c r="I36" s="27"/>
-      <c r="J36" s="38" t="s">
+      <c r="J36" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
       <c r="M36" s="28">
         <v>4692.47</v>
       </c>
       <c r="N36" s="28"/>
       <c r="O36" s="29"/>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F38" s="5">
         <v>1252605.22</v>
       </c>
@@ -1797,7 +1808,7 @@
         <v>1396120.18</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
       <c r="F39" s="5">
         <v>1882170.28</v>
       </c>
@@ -1805,7 +1816,7 @@
         <v>2097729.59</v>
       </c>
     </row>
-    <row r="41" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="41" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B41" s="32" t="s">
         <v>1</v>
       </c>
@@ -1835,7 +1846,7 @@
       </c>
       <c r="K41" s="33"/>
     </row>
-    <row r="42" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B42" s="34" t="s">
         <v>39</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>4485.6766000000025</v>
       </c>
     </row>
-    <row r="43" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="43" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B43" s="34" t="s">
         <v>40</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>4534.0092000000004</v>
       </c>
     </row>
-    <row r="44" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="44" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B44" s="34"/>
       <c r="C44" s="35">
         <v>0</v>
@@ -1974,7 +1985,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="45" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="45" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B45" s="34"/>
       <c r="C45" s="35">
         <v>0</v>
@@ -2017,7 +2028,7 @@
         <v>22.213333333333338</v>
       </c>
     </row>
-    <row r="46" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="46" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B46" s="34"/>
       <c r="C46" s="35">
         <v>0</v>
@@ -2060,7 +2071,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="47" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="47" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B47" s="34"/>
       <c r="C47" s="35">
         <v>0</v>
@@ -2103,7 +2114,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="48" spans="2:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="48" spans="2:15" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B48" s="34"/>
       <c r="C48" s="35">
         <v>0</v>
@@ -2146,7 +2157,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B49" s="34"/>
       <c r="C49" s="35">
         <v>0</v>
@@ -2189,7 +2200,7 @@
         <v>11.106666666666669</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="50" spans="2:14" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B50" s="34"/>
       <c r="C50" s="36">
         <f>SUM(C42:C49)</f>
@@ -2230,18 +2241,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="I20:O20"/>
     <mergeCell ref="J26:L26"/>
@@ -2254,6 +2253,18 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="J34:L34"/>
     <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
